--- a/Prosocial_learning_R_code/PL_152_combined_data_share.xlsx
+++ b/Prosocial_learning_R_code/PL_152_combined_data_share.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocutler/Dropbox/mpfc_tasks/Analysis_scripts_mpfc/PL_task/Analysis_PL_ageing/Prosocial_learning_R_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocutler/Dropbox/mpfc_tasks/Analysis_scripts_mpfc/PL_task/Analysis_PL_ageing_share/Prosocial_learning_R_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F64203-1719-3442-86E4-CEB15B68EA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6335EC6-F6F6-A841-84B0-001B6CABE32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="11260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54880" yWindow="6680" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PL_152_combined_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ID_Code</t>
   </si>
@@ -157,9 +157,6 @@
     <t>PL_noone_alpha</t>
   </si>
   <si>
-    <t>beta_152</t>
-  </si>
-  <si>
     <t>other-self_alph</t>
   </si>
   <si>
@@ -173,6 +170,18 @@
   </si>
   <si>
     <t>SRP_total</t>
+  </si>
+  <si>
+    <t>PL_beta</t>
+  </si>
+  <si>
+    <t>WTAR_Standard</t>
+  </si>
+  <si>
+    <t>ACE_(Attention/18)'</t>
+  </si>
+  <si>
+    <t>ACE_(Memory/26)'</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY153"/>
+  <dimension ref="A1:BB153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AT36" sqref="AT36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,10 +1039,10 @@
     <col min="3" max="4" width="10.83203125" style="3"/>
     <col min="5" max="42" width="10.83203125" style="1"/>
     <col min="43" max="45" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="51" width="10.83203125" style="1"/>
+    <col min="46" max="54" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,25 +1179,34 @@
         <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1342,8 +1360,11 @@
       <c r="AY2" s="1">
         <v>44</v>
       </c>
+      <c r="AZ2" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1497,8 +1518,11 @@
       <c r="AY3" s="1">
         <v>40</v>
       </c>
+      <c r="AZ3" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1652,8 +1676,11 @@
       <c r="AY4" s="1">
         <v>60</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>117</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>105</v>
       </c>
@@ -1807,8 +1834,11 @@
       <c r="AY5" s="1">
         <v>47</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>115</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>106</v>
       </c>
@@ -1854,8 +1884,11 @@
       <c r="AU6" s="1">
         <v>3.0171E-2</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>107</v>
       </c>
@@ -2009,8 +2042,11 @@
       <c r="AY7" s="1">
         <v>42</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>108</v>
       </c>
@@ -2164,8 +2200,11 @@
       <c r="AY8" s="1">
         <v>55</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>115</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>109</v>
       </c>
@@ -2319,8 +2358,11 @@
       <c r="AY9" s="1">
         <v>77</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>108</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>112</v>
       </c>
@@ -2474,8 +2516,11 @@
       <c r="AY10" s="1">
         <v>38</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>129</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>113</v>
       </c>
@@ -2629,8 +2674,11 @@
       <c r="AY11" s="1">
         <v>39</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>114</v>
       </c>
@@ -2784,8 +2832,11 @@
       <c r="AY12" s="1">
         <v>56</v>
       </c>
+      <c r="AZ12" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>115</v>
       </c>
@@ -2939,8 +2990,11 @@
       <c r="AY13" s="1">
         <v>88</v>
       </c>
+      <c r="AZ13" s="1">
+        <v>117</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>116</v>
       </c>
@@ -3094,8 +3148,11 @@
       <c r="AY14" s="1">
         <v>60</v>
       </c>
+      <c r="AZ14" s="1">
+        <v>129</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>117</v>
       </c>
@@ -3249,8 +3306,11 @@
       <c r="AY15" s="1">
         <v>59</v>
       </c>
+      <c r="AZ15" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>119</v>
       </c>
@@ -3404,8 +3464,11 @@
       <c r="AY16" s="1">
         <v>96</v>
       </c>
+      <c r="AZ16" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>120</v>
       </c>
@@ -3559,8 +3622,11 @@
       <c r="AY17" s="1">
         <v>43</v>
       </c>
+      <c r="AZ17" s="1">
+        <v>129</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>121</v>
       </c>
@@ -3714,8 +3780,11 @@
       <c r="AY18" s="1">
         <v>31</v>
       </c>
+      <c r="AZ18" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>122</v>
       </c>
@@ -3869,8 +3938,11 @@
       <c r="AY19" s="1">
         <v>53</v>
       </c>
+      <c r="AZ19" s="1">
+        <v>117</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>123</v>
       </c>
@@ -4024,8 +4096,11 @@
       <c r="AY20" s="1">
         <v>54</v>
       </c>
+      <c r="AZ20" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>124</v>
       </c>
@@ -4179,8 +4254,11 @@
       <c r="AY21" s="1">
         <v>38</v>
       </c>
+      <c r="AZ21" s="1">
+        <v>104</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>125</v>
       </c>
@@ -4334,8 +4412,11 @@
       <c r="AY22" s="1">
         <v>42</v>
       </c>
+      <c r="AZ22" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>126</v>
       </c>
@@ -4489,8 +4570,11 @@
       <c r="AY23" s="1">
         <v>36</v>
       </c>
+      <c r="AZ23" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>127</v>
       </c>
@@ -4644,8 +4728,11 @@
       <c r="AY24" s="1">
         <v>44</v>
       </c>
+      <c r="AZ24" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>128</v>
       </c>
@@ -4799,8 +4886,11 @@
       <c r="AY25" s="1">
         <v>66</v>
       </c>
+      <c r="AZ25" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>129</v>
       </c>
@@ -4954,8 +5044,11 @@
       <c r="AY26" s="1">
         <v>49</v>
       </c>
+      <c r="AZ26" s="1">
+        <v>115</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130</v>
       </c>
@@ -5109,8 +5202,11 @@
       <c r="AY27" s="1">
         <v>35</v>
       </c>
+      <c r="AZ27" s="1">
+        <v>117</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>131</v>
       </c>
@@ -5264,8 +5360,11 @@
       <c r="AY28" s="1">
         <v>54</v>
       </c>
+      <c r="AZ28" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>132</v>
       </c>
@@ -5419,8 +5518,11 @@
       <c r="AY29" s="1">
         <v>50</v>
       </c>
+      <c r="AZ29" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>133</v>
       </c>
@@ -5574,8 +5676,11 @@
       <c r="AY30" s="1">
         <v>46</v>
       </c>
+      <c r="AZ30" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>134</v>
       </c>
@@ -5729,8 +5834,11 @@
       <c r="AY31" s="1">
         <v>54</v>
       </c>
+      <c r="AZ31" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>135</v>
       </c>
@@ -5884,8 +5992,11 @@
       <c r="AY32" s="1">
         <v>29</v>
       </c>
+      <c r="AZ32" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>136</v>
       </c>
@@ -6039,8 +6150,11 @@
       <c r="AY33" s="1">
         <v>31</v>
       </c>
+      <c r="AZ33" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>137</v>
       </c>
@@ -6194,8 +6308,11 @@
       <c r="AY34" s="1">
         <v>38</v>
       </c>
+      <c r="AZ34" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>138</v>
       </c>
@@ -6349,8 +6466,11 @@
       <c r="AY35" s="1">
         <v>52</v>
       </c>
+      <c r="AZ35" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>139</v>
       </c>
@@ -6504,8 +6624,11 @@
       <c r="AY36" s="1">
         <v>59</v>
       </c>
+      <c r="AZ36" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>140</v>
       </c>
@@ -6659,8 +6782,11 @@
       <c r="AY37" s="1">
         <v>45</v>
       </c>
+      <c r="AZ37" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>141</v>
       </c>
@@ -6814,8 +6940,11 @@
       <c r="AY38" s="1">
         <v>38</v>
       </c>
+      <c r="AZ38" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>142</v>
       </c>
@@ -6969,8 +7098,11 @@
       <c r="AY39" s="1">
         <v>32</v>
       </c>
+      <c r="AZ39" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>143</v>
       </c>
@@ -7124,8 +7256,11 @@
       <c r="AY40" s="1">
         <v>41</v>
       </c>
+      <c r="AZ40" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>144</v>
       </c>
@@ -7279,8 +7414,11 @@
       <c r="AY41" s="1">
         <v>38</v>
       </c>
+      <c r="AZ41" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>145</v>
       </c>
@@ -7434,8 +7572,11 @@
       <c r="AY42" s="1">
         <v>48</v>
       </c>
+      <c r="AZ42" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>146</v>
       </c>
@@ -7589,8 +7730,11 @@
       <c r="AY43" s="1">
         <v>36</v>
       </c>
+      <c r="AZ43" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>147</v>
       </c>
@@ -7744,8 +7888,11 @@
       <c r="AY44" s="1">
         <v>39</v>
       </c>
+      <c r="AZ44" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>148</v>
       </c>
@@ -7899,8 +8046,11 @@
       <c r="AY45" s="1">
         <v>33</v>
       </c>
+      <c r="AZ45" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>149</v>
       </c>
@@ -8054,8 +8204,11 @@
       <c r="AY46" s="1">
         <v>54</v>
       </c>
+      <c r="AZ46" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>150</v>
       </c>
@@ -8209,8 +8362,11 @@
       <c r="AY47" s="1">
         <v>37</v>
       </c>
+      <c r="AZ47" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>151</v>
       </c>
@@ -8364,8 +8520,11 @@
       <c r="AY48" s="1">
         <v>84</v>
       </c>
+      <c r="AZ48" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>152</v>
       </c>
@@ -8519,8 +8678,11 @@
       <c r="AY49" s="1">
         <v>34</v>
       </c>
+      <c r="AZ49" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>153</v>
       </c>
@@ -8674,8 +8836,11 @@
       <c r="AY50" s="1">
         <v>45</v>
       </c>
+      <c r="AZ50" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>154</v>
       </c>
@@ -8829,8 +8994,11 @@
       <c r="AY51" s="1">
         <v>43</v>
       </c>
+      <c r="AZ51" s="1">
+        <v>117</v>
+      </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>155</v>
       </c>
@@ -8984,8 +9152,11 @@
       <c r="AY52" s="1">
         <v>35</v>
       </c>
+      <c r="AZ52" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>156</v>
       </c>
@@ -9139,8 +9310,11 @@
       <c r="AY53" s="1">
         <v>61</v>
       </c>
+      <c r="AZ53" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>157</v>
       </c>
@@ -9294,8 +9468,11 @@
       <c r="AY54" s="1">
         <v>38</v>
       </c>
+      <c r="AZ54" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>159</v>
       </c>
@@ -9449,8 +9626,11 @@
       <c r="AY55" s="1">
         <v>48</v>
       </c>
+      <c r="AZ55" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>160</v>
       </c>
@@ -9604,8 +9784,11 @@
       <c r="AY56" s="1">
         <v>40</v>
       </c>
+      <c r="AZ56" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>161</v>
       </c>
@@ -9759,8 +9942,11 @@
       <c r="AY57" s="1">
         <v>44</v>
       </c>
+      <c r="AZ57" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>162</v>
       </c>
@@ -9914,8 +10100,11 @@
       <c r="AY58" s="1">
         <v>65</v>
       </c>
+      <c r="AZ58" s="1">
+        <v>127</v>
+      </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>163</v>
       </c>
@@ -10069,8 +10258,11 @@
       <c r="AY59" s="1">
         <v>29</v>
       </c>
+      <c r="AZ59" s="1">
+        <v>117</v>
+      </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>164</v>
       </c>
@@ -10224,8 +10416,11 @@
       <c r="AY60" s="1">
         <v>35</v>
       </c>
+      <c r="AZ60" s="1">
+        <v>126</v>
+      </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>165</v>
       </c>
@@ -10379,8 +10574,11 @@
       <c r="AY61" s="1">
         <v>45</v>
       </c>
+      <c r="AZ61" s="1">
+        <v>120</v>
+      </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>166</v>
       </c>
@@ -10534,8 +10732,11 @@
       <c r="AY62" s="1">
         <v>46</v>
       </c>
+      <c r="AZ62" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>167</v>
       </c>
@@ -10689,8 +10890,11 @@
       <c r="AY63" s="1">
         <v>44</v>
       </c>
+      <c r="AZ63" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>168</v>
       </c>
@@ -10844,8 +11048,11 @@
       <c r="AY64" s="1">
         <v>52</v>
       </c>
+      <c r="AZ64" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>169</v>
       </c>
@@ -10999,8 +11206,11 @@
       <c r="AY65" s="1">
         <v>56</v>
       </c>
+      <c r="AZ65" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>170</v>
       </c>
@@ -11154,8 +11364,11 @@
       <c r="AY66" s="1">
         <v>52</v>
       </c>
+      <c r="AZ66" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>171</v>
       </c>
@@ -11309,8 +11522,11 @@
       <c r="AY67" s="1">
         <v>45</v>
       </c>
+      <c r="AZ67" s="1">
+        <v>119</v>
+      </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>172</v>
       </c>
@@ -11464,8 +11680,11 @@
       <c r="AY68" s="1">
         <v>40</v>
       </c>
+      <c r="AZ68" s="1">
+        <v>108</v>
+      </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>173</v>
       </c>
@@ -11619,8 +11838,11 @@
       <c r="AY69" s="1">
         <v>44</v>
       </c>
+      <c r="AZ69" s="1">
+        <v>113</v>
+      </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>174</v>
       </c>
@@ -11774,8 +11996,11 @@
       <c r="AY70" s="1">
         <v>71</v>
       </c>
+      <c r="AZ70" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>175</v>
       </c>
@@ -11929,8 +12154,11 @@
       <c r="AY71" s="1">
         <v>59</v>
       </c>
+      <c r="AZ71" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>176</v>
       </c>
@@ -12084,8 +12312,11 @@
       <c r="AY72" s="1">
         <v>33</v>
       </c>
+      <c r="AZ72" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>177</v>
       </c>
@@ -12239,8 +12470,11 @@
       <c r="AY73" s="1">
         <v>59</v>
       </c>
+      <c r="AZ73" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>178</v>
       </c>
@@ -12394,8 +12628,11 @@
       <c r="AY74" s="1">
         <v>67</v>
       </c>
+      <c r="AZ74" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>179</v>
       </c>
@@ -12549,8 +12786,11 @@
       <c r="AY75" s="1">
         <v>46</v>
       </c>
+      <c r="AZ75" s="1">
+        <v>122</v>
+      </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>180</v>
       </c>
@@ -12704,8 +12944,11 @@
       <c r="AY76" s="1">
         <v>68</v>
       </c>
+      <c r="AZ76" s="1">
+        <v>124</v>
+      </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>201</v>
       </c>
@@ -12859,8 +13102,17 @@
       <c r="AY77" s="1">
         <v>43</v>
       </c>
+      <c r="AZ77" s="1">
+        <v>122</v>
+      </c>
+      <c r="BA77" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB77" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2012</v>
       </c>
@@ -13014,8 +13266,17 @@
       <c r="AY78" s="1">
         <v>36</v>
       </c>
+      <c r="AZ78" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA78" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>202</v>
       </c>
@@ -13169,8 +13430,17 @@
       <c r="AY79" s="1">
         <v>34</v>
       </c>
+      <c r="AZ79" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA79" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB79" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>203</v>
       </c>
@@ -13324,8 +13594,17 @@
       <c r="AY80" s="1">
         <v>41</v>
       </c>
+      <c r="AZ80" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA80" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB80" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>204</v>
       </c>
@@ -13479,8 +13758,17 @@
       <c r="AY81" s="1">
         <v>36</v>
       </c>
+      <c r="AZ81" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA81" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB81" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>206</v>
       </c>
@@ -13634,8 +13922,17 @@
       <c r="AY82" s="1">
         <v>49</v>
       </c>
+      <c r="AZ82" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA82" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB82" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>207</v>
       </c>
@@ -13789,8 +14086,17 @@
       <c r="AY83" s="1">
         <v>36</v>
       </c>
+      <c r="AZ83" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA83" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB83" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>208</v>
       </c>
@@ -13944,8 +14250,17 @@
       <c r="AY84" s="1">
         <v>34</v>
       </c>
+      <c r="AZ84" s="1">
+        <v>93</v>
+      </c>
+      <c r="BA84" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB84" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>209</v>
       </c>
@@ -14099,8 +14414,17 @@
       <c r="AY85" s="1">
         <v>30</v>
       </c>
+      <c r="AZ85" s="1">
+        <v>110</v>
+      </c>
+      <c r="BA85" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB85" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>210</v>
       </c>
@@ -14254,8 +14578,17 @@
       <c r="AY86" s="1">
         <v>33</v>
       </c>
+      <c r="AZ86" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA86" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB86" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>211</v>
       </c>
@@ -14409,8 +14742,17 @@
       <c r="AY87" s="1">
         <v>41</v>
       </c>
+      <c r="AZ87" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA87" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB87" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>212</v>
       </c>
@@ -14564,8 +14906,17 @@
       <c r="AY88" s="1">
         <v>52</v>
       </c>
+      <c r="AZ88" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA88" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB88" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>213</v>
       </c>
@@ -14719,8 +15070,17 @@
       <c r="AY89" s="1">
         <v>85</v>
       </c>
+      <c r="AZ89" s="1">
+        <v>113</v>
+      </c>
+      <c r="BA89" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB89" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>214</v>
       </c>
@@ -14874,8 +15234,17 @@
       <c r="AY90" s="1">
         <v>33</v>
       </c>
+      <c r="AZ90" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA90" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB90" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>215</v>
       </c>
@@ -15029,8 +15398,17 @@
       <c r="AY91" s="1">
         <v>31</v>
       </c>
+      <c r="AZ91" s="1">
+        <v>111</v>
+      </c>
+      <c r="BA91" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB91" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>216</v>
       </c>
@@ -15169,8 +15547,17 @@
       <c r="AY92" s="1">
         <v>58</v>
       </c>
+      <c r="AZ92" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA92" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB92" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>217</v>
       </c>
@@ -15324,8 +15711,17 @@
       <c r="AY93" s="1">
         <v>37</v>
       </c>
+      <c r="AZ93" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA93" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB93" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>218</v>
       </c>
@@ -15479,8 +15875,17 @@
       <c r="AY94" s="1">
         <v>37</v>
       </c>
+      <c r="AZ94" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA94" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB94" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>219</v>
       </c>
@@ -15634,8 +16039,17 @@
       <c r="AY95" s="1">
         <v>106</v>
       </c>
+      <c r="AZ95" s="1">
+        <v>113</v>
+      </c>
+      <c r="BA95" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB95" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>221</v>
       </c>
@@ -15789,8 +16203,17 @@
       <c r="AY96" s="1">
         <v>33</v>
       </c>
+      <c r="AZ96" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA96" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB96" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>222</v>
       </c>
@@ -15944,8 +16367,17 @@
       <c r="AY97" s="1">
         <v>42</v>
       </c>
+      <c r="AZ97" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA97" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB97" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>223</v>
       </c>
@@ -16099,8 +16531,17 @@
       <c r="AY98" s="1">
         <v>39</v>
       </c>
+      <c r="AZ98" s="1">
+        <v>118</v>
+      </c>
+      <c r="BA98" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB98" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>224</v>
       </c>
@@ -16254,8 +16695,17 @@
       <c r="AY99" s="1">
         <v>43</v>
       </c>
+      <c r="AZ99" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA99" s="1">
+        <v>15</v>
+      </c>
+      <c r="BB99" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>225</v>
       </c>
@@ -16409,8 +16859,17 @@
       <c r="AY100" s="1">
         <v>47</v>
       </c>
+      <c r="AZ100" s="1">
+        <v>114</v>
+      </c>
+      <c r="BA100" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB100" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>226</v>
       </c>
@@ -16564,8 +17023,17 @@
       <c r="AY101" s="1">
         <v>43</v>
       </c>
+      <c r="AZ101" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA101" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB101" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>227</v>
       </c>
@@ -16719,8 +17187,17 @@
       <c r="AY102" s="1">
         <v>37</v>
       </c>
+      <c r="AZ102" s="1">
+        <v>118</v>
+      </c>
+      <c r="BA102" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB102" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>228</v>
       </c>
@@ -16874,8 +17351,17 @@
       <c r="AY103" s="1">
         <v>31</v>
       </c>
+      <c r="AZ103" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA103" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB103" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>229</v>
       </c>
@@ -17029,8 +17515,17 @@
       <c r="AY104" s="1">
         <v>43</v>
       </c>
+      <c r="AZ104" s="1">
+        <v>114</v>
+      </c>
+      <c r="BA104" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB104" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>230</v>
       </c>
@@ -17184,8 +17679,17 @@
       <c r="AY105" s="1">
         <v>45</v>
       </c>
+      <c r="AZ105" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA105" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB105" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>231</v>
       </c>
@@ -17339,8 +17843,17 @@
       <c r="AY106" s="1">
         <v>35</v>
       </c>
+      <c r="AZ106" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA106" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB106" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>232</v>
       </c>
@@ -17494,8 +18007,17 @@
       <c r="AY107" s="1">
         <v>34</v>
       </c>
+      <c r="AZ107" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA107" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB107" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>233</v>
       </c>
@@ -17649,8 +18171,17 @@
       <c r="AY108" s="1">
         <v>37</v>
       </c>
+      <c r="AZ108" s="1">
+        <v>112</v>
+      </c>
+      <c r="BA108" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB108" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>234</v>
       </c>
@@ -17804,8 +18335,17 @@
       <c r="AY109" s="1">
         <v>33</v>
       </c>
+      <c r="AZ109" s="1">
+        <v>116</v>
+      </c>
+      <c r="BA109" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB109" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>235</v>
       </c>
@@ -17959,8 +18499,17 @@
       <c r="AY110" s="1">
         <v>40</v>
       </c>
+      <c r="AZ110" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA110" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB110" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>236</v>
       </c>
@@ -18114,8 +18663,17 @@
       <c r="AY111" s="1">
         <v>55</v>
       </c>
+      <c r="AZ111" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA111" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB111" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>237</v>
       </c>
@@ -18269,8 +18827,17 @@
       <c r="AY112" s="1">
         <v>43</v>
       </c>
+      <c r="AZ112" s="1">
+        <v>101</v>
+      </c>
+      <c r="BA112" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB112" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>238</v>
       </c>
@@ -18424,8 +18991,17 @@
       <c r="AY113" s="1">
         <v>54</v>
       </c>
+      <c r="AZ113" s="1">
+        <v>118</v>
+      </c>
+      <c r="BA113" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB113" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>239</v>
       </c>
@@ -18579,8 +19155,17 @@
       <c r="AY114" s="1">
         <v>35</v>
       </c>
+      <c r="AZ114" s="1">
+        <v>108</v>
+      </c>
+      <c r="BA114" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB114" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>240</v>
       </c>
@@ -18734,8 +19319,17 @@
       <c r="AY115" s="1">
         <v>45</v>
       </c>
+      <c r="AZ115" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA115" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB115" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>242</v>
       </c>
@@ -18889,8 +19483,17 @@
       <c r="AY116" s="1">
         <v>36</v>
       </c>
+      <c r="AZ116" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA116" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB116" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>243</v>
       </c>
@@ -19044,8 +19647,17 @@
       <c r="AY117" s="1">
         <v>37</v>
       </c>
+      <c r="AZ117" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA117" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB117" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>244</v>
       </c>
@@ -19199,8 +19811,17 @@
       <c r="AY118" s="1">
         <v>44</v>
       </c>
+      <c r="AZ118" s="1">
+        <v>115</v>
+      </c>
+      <c r="BA118" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB118" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>245</v>
       </c>
@@ -19354,8 +19975,17 @@
       <c r="AY119" s="1">
         <v>36</v>
       </c>
+      <c r="AZ119" s="1">
+        <v>119</v>
+      </c>
+      <c r="BA119" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB119" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>246</v>
       </c>
@@ -19509,8 +20139,17 @@
       <c r="AY120" s="1">
         <v>38</v>
       </c>
+      <c r="AZ120" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA120" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB120" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>247</v>
       </c>
@@ -19664,8 +20303,17 @@
       <c r="AY121" s="1">
         <v>42</v>
       </c>
+      <c r="AZ121" s="1">
+        <v>117</v>
+      </c>
+      <c r="BA121" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB121" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>248</v>
       </c>
@@ -19819,8 +20467,17 @@
       <c r="AY122" s="1">
         <v>49</v>
       </c>
+      <c r="AZ122" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA122" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB122" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>249</v>
       </c>
@@ -19974,8 +20631,17 @@
       <c r="AY123" s="1">
         <v>80</v>
       </c>
+      <c r="AZ123" s="1">
+        <v>119</v>
+      </c>
+      <c r="BA123" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB123" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>250</v>
       </c>
@@ -20129,8 +20795,17 @@
       <c r="AY124" s="1">
         <v>42</v>
       </c>
+      <c r="AZ124" s="1">
+        <v>112</v>
+      </c>
+      <c r="BA124" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB124" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>251</v>
       </c>
@@ -20284,8 +20959,17 @@
       <c r="AY125" s="1">
         <v>34</v>
       </c>
+      <c r="AZ125" s="1">
+        <v>116</v>
+      </c>
+      <c r="BA125" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB125" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>252</v>
       </c>
@@ -20439,8 +21123,17 @@
       <c r="AY126" s="1">
         <v>31</v>
       </c>
+      <c r="AZ126" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA126" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB126" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>253</v>
       </c>
@@ -20579,8 +21272,17 @@
       <c r="AY127" s="1">
         <v>37</v>
       </c>
+      <c r="AZ127" s="1">
+        <v>116</v>
+      </c>
+      <c r="BA127" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB127" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>254</v>
       </c>
@@ -20734,8 +21436,17 @@
       <c r="AY128" s="1">
         <v>57</v>
       </c>
+      <c r="AZ128" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA128" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB128" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>255</v>
       </c>
@@ -20889,8 +21600,17 @@
       <c r="AY129" s="1">
         <v>39</v>
       </c>
+      <c r="AZ129" s="1">
+        <v>118</v>
+      </c>
+      <c r="BA129" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB129" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>256</v>
       </c>
@@ -21044,8 +21764,17 @@
       <c r="AY130" s="1">
         <v>46</v>
       </c>
+      <c r="AZ130" s="1">
+        <v>113</v>
+      </c>
+      <c r="BA130" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB130" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>257</v>
       </c>
@@ -21199,8 +21928,17 @@
       <c r="AY131" s="1">
         <v>50</v>
       </c>
+      <c r="AZ131" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA131" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB131" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>258</v>
       </c>
@@ -21354,8 +22092,17 @@
       <c r="AY132" s="1">
         <v>41</v>
       </c>
+      <c r="AZ132" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA132" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB132" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>259</v>
       </c>
@@ -21509,8 +22256,17 @@
       <c r="AY133" s="1">
         <v>36</v>
       </c>
+      <c r="AZ133" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA133" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB133" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>260</v>
       </c>
@@ -21664,8 +22420,17 @@
       <c r="AY134" s="1">
         <v>58</v>
       </c>
+      <c r="AZ134" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA134" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB134" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>261</v>
       </c>
@@ -21819,8 +22584,17 @@
       <c r="AY135" s="1">
         <v>68</v>
       </c>
+      <c r="AZ135" s="1">
+        <v>80</v>
+      </c>
+      <c r="BA135" s="1">
+        <v>11</v>
+      </c>
+      <c r="BB135" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>262</v>
       </c>
@@ -21974,8 +22748,17 @@
       <c r="AY136" s="1">
         <v>41</v>
       </c>
+      <c r="AZ136" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA136" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB136" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>263</v>
       </c>
@@ -22129,8 +22912,17 @@
       <c r="AY137" s="1">
         <v>31</v>
       </c>
+      <c r="AZ137" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA137" s="1">
+        <v>15</v>
+      </c>
+      <c r="BB137" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>264</v>
       </c>
@@ -22284,8 +23076,17 @@
       <c r="AY138" s="1">
         <v>30</v>
       </c>
+      <c r="AZ138" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA138" s="1">
+        <v>16</v>
+      </c>
+      <c r="BB138" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>265</v>
       </c>
@@ -22439,8 +23240,17 @@
       <c r="AY139" s="1">
         <v>38</v>
       </c>
+      <c r="AZ139" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA139" s="1">
+        <v>15</v>
+      </c>
+      <c r="BB139" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>266</v>
       </c>
@@ -22486,8 +23296,17 @@
       <c r="AU140" s="1">
         <v>3.2913999999999999E-2</v>
       </c>
+      <c r="AZ140" s="1">
+        <v>122</v>
+      </c>
+      <c r="BA140" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB140" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>267</v>
       </c>
@@ -22641,8 +23460,17 @@
       <c r="AY141" s="1">
         <v>41</v>
       </c>
+      <c r="AZ141" s="1">
+        <v>117</v>
+      </c>
+      <c r="BA141" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB141" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>268</v>
       </c>
@@ -22796,8 +23624,17 @@
       <c r="AY142" s="1">
         <v>32</v>
       </c>
+      <c r="AZ142" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA142" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB142" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>269</v>
       </c>
@@ -22951,8 +23788,17 @@
       <c r="AY143" s="1">
         <v>49</v>
       </c>
+      <c r="AZ143" s="1">
+        <v>116</v>
+      </c>
+      <c r="BA143" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB143" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>270</v>
       </c>
@@ -23106,8 +23952,17 @@
       <c r="AY144" s="1">
         <v>41</v>
       </c>
+      <c r="AZ144" s="1">
+        <v>119</v>
+      </c>
+      <c r="BA144" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB144" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>271</v>
       </c>
@@ -23261,8 +24116,17 @@
       <c r="AY145" s="1">
         <v>43</v>
       </c>
+      <c r="AZ145" s="1">
+        <v>107</v>
+      </c>
+      <c r="BA145" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB145" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>272</v>
       </c>
@@ -23416,8 +24280,17 @@
       <c r="AY146" s="1">
         <v>31</v>
       </c>
+      <c r="AZ146" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA146" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB146" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>274</v>
       </c>
@@ -23571,8 +24444,17 @@
       <c r="AY147" s="1">
         <v>32</v>
       </c>
+      <c r="AZ147" s="1">
+        <v>128</v>
+      </c>
+      <c r="BA147" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB147" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>275</v>
       </c>
@@ -23726,8 +24608,17 @@
       <c r="AY148" s="1">
         <v>63</v>
       </c>
+      <c r="AZ148" s="1">
+        <v>118</v>
+      </c>
+      <c r="BA148" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB148" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>276</v>
       </c>
@@ -23881,8 +24772,17 @@
       <c r="AY149" s="1">
         <v>44</v>
       </c>
+      <c r="AZ149" s="1">
+        <v>122</v>
+      </c>
+      <c r="BA149" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB149" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>277</v>
       </c>
@@ -24036,8 +24936,17 @@
       <c r="AY150" s="1">
         <v>32</v>
       </c>
+      <c r="AZ150" s="1">
+        <v>123</v>
+      </c>
+      <c r="BA150" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB150" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>278</v>
       </c>
@@ -24191,8 +25100,17 @@
       <c r="AY151" s="1">
         <v>37</v>
       </c>
+      <c r="AZ151" s="1">
+        <v>112</v>
+      </c>
+      <c r="BA151" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB151" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>279</v>
       </c>
@@ -24346,8 +25264,17 @@
       <c r="AY152" s="1">
         <v>43</v>
       </c>
+      <c r="AZ152" s="1">
+        <v>112</v>
+      </c>
+      <c r="BA152" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB152" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>280</v>
       </c>
@@ -24500,6 +25427,15 @@
       </c>
       <c r="AY153" s="1">
         <v>36</v>
+      </c>
+      <c r="AZ153" s="1">
+        <v>125</v>
+      </c>
+      <c r="BA153" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB153" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
